--- a/present/bi/2019/jupyter/df5.xlsx
+++ b/present/bi/2019/jupyter/df5.xlsx
@@ -31,10 +31,10 @@
     <t>Belgium</t>
   </si>
   <si>
+    <t>Cipru</t>
+  </si>
+  <si>
     <t>Cseh</t>
-  </si>
-  <si>
-    <t>Cipru</t>
   </si>
   <si>
     <t>Danemarca</t>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37.66666666666666</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/present/bi/2019/jupyter/df5.xlsx
+++ b/present/bi/2019/jupyter/df5.xlsx
@@ -31,10 +31,10 @@
     <t>Belgium</t>
   </si>
   <si>
+    <t>Cseh</t>
+  </si>
+  <si>
     <t>Cipru</t>
-  </si>
-  <si>
-    <t>Cseh</t>
   </si>
   <si>
     <t>Danemarca</t>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37.66666666666666</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
